--- a/biology/Neurosciences/Prix_Swartz/Prix_Swartz.xlsx
+++ b/biology/Neurosciences/Prix_Swartz/Prix_Swartz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix Swartz de neuroscience théorique et computationnelle (Swartz Prize for Theoretical and Computational Neuroscience) est un prix scientifique décerné par la Society for Neuroscience pris en charge par la Fondation Swartz qui « honore une personne dont les activités ont entraîné une importante contribution cumulative aux modèles théoriques ou des méthodes de calcul dans les neurosciences ou qui a fait une avancée particulièrement remarquable en neurosciences computationnelles »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix Swartz de neuroscience théorique et computationnelle (Swartz Prize for Theoretical and Computational Neuroscience) est un prix scientifique décerné par la Society for Neuroscience pris en charge par la Fondation Swartz qui « honore une personne dont les activités ont entraîné une importante contribution cumulative aux modèles théoriques ou des méthodes de calcul dans les neurosciences ou qui a fait une avancée particulièrement remarquable en neurosciences computationnelles ».
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2008: Wilfrid Rall (en)
 2009: Horace Barlow
@@ -519,11 +533,11 @@
 2011: Haim Sompolinsky (en)
 2012: John J. Hopfield
 2013: William Bialek (en)
-2014: Tomaso Poggio[2]
+2014: Tomaso Poggio
 2015: Terry Sejnowski (en)
 2016: Nancy Kopell
 2017: Xiao-Jing Wang
-2022: Ila Fiete[3]</t>
+2022: Ila Fiete</t>
         </is>
       </c>
     </row>
